--- a/Code/Results/Cases/Case_4_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.14724546474889</v>
+        <v>10.78335592748847</v>
       </c>
       <c r="C2">
-        <v>16.99271839633468</v>
+        <v>12.93183655125447</v>
       </c>
       <c r="D2">
-        <v>7.005592005189552</v>
+        <v>6.051680083307279</v>
       </c>
       <c r="E2">
-        <v>13.36951000378962</v>
+        <v>10.67501344388617</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.120629460570207</v>
+        <v>3.73922194486029</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.99160085937946</v>
+        <v>48.49108567295852</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.27845812525679</v>
+        <v>13.51171245490564</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.88247567190645</v>
+        <v>15.96349986313935</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.309653581659658</v>
+        <v>10.8167576846205</v>
       </c>
       <c r="C3">
-        <v>15.89052402511582</v>
+        <v>12.55621843885591</v>
       </c>
       <c r="D3">
-        <v>6.494264904532446</v>
+        <v>5.945423132733894</v>
       </c>
       <c r="E3">
-        <v>12.4939230467097</v>
+        <v>10.41856911483452</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.134754021362975</v>
+        <v>3.743493126148991</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>61.17287336337468</v>
+        <v>46.989660917696</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.33912364347686</v>
+        <v>13.46730107455785</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.79075299238232</v>
+        <v>15.86615053209072</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.779228048667489</v>
+        <v>10.84469009016524</v>
       </c>
       <c r="C4">
-        <v>15.19068683278552</v>
+        <v>12.32244088705934</v>
       </c>
       <c r="D4">
-        <v>6.203674769288959</v>
+        <v>5.881213814876086</v>
       </c>
       <c r="E4">
-        <v>11.94036258220351</v>
+        <v>10.2609430477339</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.143523389625081</v>
+        <v>3.746242511741947</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.75112280963777</v>
+        <v>46.04091053947268</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.73923933027779</v>
+        <v>13.44571848631072</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.17897857387621</v>
+        <v>15.81147690813352</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.558774267903953</v>
+        <v>10.8579193653871</v>
       </c>
       <c r="C5">
-        <v>14.8996922492503</v>
+        <v>12.2265235717621</v>
       </c>
       <c r="D5">
-        <v>6.089376620221692</v>
+        <v>5.855343966622254</v>
       </c>
       <c r="E5">
-        <v>11.71077594260458</v>
+        <v>10.19676196682831</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.147127258279028</v>
+        <v>3.747394959338087</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.7447959946617</v>
+        <v>45.64792008798212</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.4887333853265</v>
+        <v>13.43835681566254</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.98081074098718</v>
+        <v>15.79049563901429</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.521901861686064</v>
+        <v>10.86022698168385</v>
       </c>
       <c r="C6">
-        <v>14.85102343761861</v>
+        <v>12.21056151008728</v>
       </c>
       <c r="D6">
-        <v>6.070292872148667</v>
+        <v>5.851067225930084</v>
       </c>
       <c r="E6">
-        <v>11.67241252317784</v>
+        <v>10.18611076883242</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.147727668024106</v>
+        <v>3.747588262549566</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.57652351271738</v>
+        <v>45.58229181289096</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.44676544525815</v>
+        <v>13.43722105032703</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.94787985046357</v>
+        <v>15.78709058513542</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.776272642967916</v>
+        <v>10.84486105591989</v>
       </c>
       <c r="C7">
-        <v>15.18678583692149</v>
+        <v>12.32114975742639</v>
       </c>
       <c r="D7">
-        <v>6.202140355622199</v>
+        <v>5.880863679044725</v>
       </c>
       <c r="E7">
-        <v>11.93728247051469</v>
+        <v>10.26007713770285</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.143571862682407</v>
+        <v>3.746257924081014</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.73762981478722</v>
+        <v>46.03563577326065</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.73588569768556</v>
+        <v>13.44561339733683</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.17630780548156</v>
+        <v>15.81118866914289</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.861637053870226</v>
+        <v>10.79332056587702</v>
       </c>
       <c r="C8">
-        <v>16.61745298536365</v>
+        <v>12.80305793274817</v>
       </c>
       <c r="D8">
-        <v>6.832192452078048</v>
+        <v>6.014850138237695</v>
       </c>
       <c r="E8">
-        <v>13.07090129887501</v>
+        <v>10.58668252686636</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.12548329648279</v>
+        <v>3.740668408346136</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.6907870855263</v>
+        <v>47.97919455133899</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.95922808183814</v>
+        <v>13.49522207198079</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.51180874234127</v>
+        <v>15.92888603690686</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.87489112256849</v>
+        <v>10.75195207246949</v>
       </c>
       <c r="C9">
-        <v>19.24331246013532</v>
+        <v>13.71740156103533</v>
       </c>
       <c r="D9">
-        <v>8.033864583529912</v>
+        <v>6.284194198853861</v>
       </c>
       <c r="E9">
-        <v>15.34498146415028</v>
+        <v>11.22180366436555</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.090471696735363</v>
+        <v>3.730707117862968</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.80688874446683</v>
+        <v>51.56190408123409</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.18668824972084</v>
+        <v>13.63735830178261</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.09056568007129</v>
+        <v>16.19931796280952</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.30543868658435</v>
+        <v>10.75888926384511</v>
       </c>
       <c r="C10">
-        <v>21.07295676383556</v>
+        <v>14.3634848447686</v>
       </c>
       <c r="D10">
-        <v>8.859099917478181</v>
+        <v>6.483982555446616</v>
       </c>
       <c r="E10">
-        <v>16.94725518862839</v>
+        <v>11.68007225313752</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.064521220987186</v>
+        <v>3.72398836288867</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.17691484862939</v>
+        <v>54.03646623571272</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.7382759224777</v>
+        <v>13.76862620093102</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.87620202385714</v>
+        <v>16.42089910652275</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.95176422110679</v>
+        <v>10.77030012132739</v>
       </c>
       <c r="C11">
-        <v>21.88741604698017</v>
+        <v>14.65054445425827</v>
       </c>
       <c r="D11">
-        <v>9.224290963580938</v>
+        <v>6.574849110049522</v>
       </c>
       <c r="E11">
-        <v>17.65791970328329</v>
+        <v>11.88575348893259</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.0525244353104</v>
+        <v>3.721059987565501</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.01681372858943</v>
+        <v>55.12473842184038</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.43111722143509</v>
+        <v>13.83401916058338</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.67066286382081</v>
+        <v>16.52636392630517</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.19650670666766</v>
+        <v>10.77581648927783</v>
       </c>
       <c r="C12">
-        <v>22.19369436049758</v>
+        <v>14.75816787251038</v>
       </c>
       <c r="D12">
-        <v>9.361343485009375</v>
+        <v>6.609220541875986</v>
       </c>
       <c r="E12">
-        <v>17.92490019057735</v>
+        <v>11.96316402854382</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.047939219856009</v>
+        <v>3.719969334929413</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.08539514000263</v>
+        <v>55.53122631593153</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.69217108550042</v>
+        <v>13.85958243186244</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.96953603275269</v>
+        <v>16.56694320602776</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.14378588974621</v>
+        <v>10.77457517614877</v>
       </c>
       <c r="C13">
-        <v>22.1278189714265</v>
+        <v>14.73503868657303</v>
       </c>
       <c r="D13">
-        <v>9.33187764683985</v>
+        <v>6.601820262434248</v>
       </c>
       <c r="E13">
-        <v>17.86748722164912</v>
+        <v>11.94651462048322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.048928876096814</v>
+        <v>3.720203416775104</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>82.85553264248756</v>
+        <v>55.44393517582661</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.63599665724901</v>
+        <v>13.85404160447792</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.90524533841438</v>
+        <v>16.55817565306738</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.9718953941079</v>
+        <v>10.77072996266399</v>
       </c>
       <c r="C14">
-        <v>21.91265377541576</v>
+        <v>14.6594208512613</v>
       </c>
       <c r="D14">
-        <v>9.235589674534921</v>
+        <v>6.577677821305358</v>
       </c>
       <c r="E14">
-        <v>17.67992395834644</v>
+        <v>11.89213206342059</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.05214814957888</v>
+        <v>3.720969893827038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.10485343531718</v>
+        <v>55.15829425940154</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.45261694827387</v>
+        <v>13.83610632489144</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.69528704451195</v>
+        <v>16.52968971148302</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.86662752163898</v>
+        <v>10.76853052293324</v>
       </c>
       <c r="C15">
-        <v>21.78059484801958</v>
+        <v>14.61295945169068</v>
       </c>
       <c r="D15">
-        <v>9.176456973246948</v>
+        <v>6.562883943299062</v>
       </c>
       <c r="E15">
-        <v>17.56477438195766</v>
+        <v>11.85875697535289</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.054114051825612</v>
+        <v>3.721441756638005</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>81.64420264573248</v>
+        <v>54.98259287848868</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.34013938292208</v>
+        <v>13.82522416865155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.56644430612247</v>
+        <v>16.51232397875605</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.26316162313073</v>
+        <v>10.75831041874485</v>
       </c>
       <c r="C16">
-        <v>21.01940471110467</v>
+        <v>14.34457868976724</v>
       </c>
       <c r="D16">
-        <v>8.835047117712525</v>
+        <v>6.478040809551831</v>
       </c>
       <c r="E16">
-        <v>16.90048452995251</v>
+        <v>11.66656781621086</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.065300187976817</v>
+        <v>3.724182302414153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>78.99027559402943</v>
+        <v>53.96457129441903</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.69278103129178</v>
+        <v>13.76446554291446</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.82397136784967</v>
+        <v>16.41409818743999</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.89222926566951</v>
+        <v>10.75416177804821</v>
       </c>
       <c r="C17">
-        <v>20.54813655566106</v>
+        <v>14.17811135755387</v>
       </c>
       <c r="D17">
-        <v>8.623139053912535</v>
+        <v>6.425962186049299</v>
       </c>
       <c r="E17">
-        <v>16.4886164380949</v>
+        <v>11.54789647157906</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.072103816592704</v>
+        <v>3.725896221155599</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.34830467386236</v>
+        <v>53.33028723638628</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.29268582657134</v>
+        <v>13.72863558695877</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.36430770550207</v>
+        <v>16.35501486419166</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.67841676714892</v>
+        <v>10.75255227556576</v>
       </c>
       <c r="C18">
-        <v>20.27536332296546</v>
+        <v>14.0817243718552</v>
       </c>
       <c r="D18">
-        <v>8.500277825416463</v>
+        <v>6.396008247630592</v>
       </c>
       <c r="E18">
-        <v>16.24997208177343</v>
+        <v>11.47938165991867</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.076000064791551</v>
+        <v>3.726894080701893</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.39833051968014</v>
+        <v>52.96195413322424</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.06130063150096</v>
+        <v>13.70856272832593</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.09820133092468</v>
+        <v>16.32147275964805</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.60592692729506</v>
+        <v>10.75214042603153</v>
       </c>
       <c r="C19">
-        <v>20.18270163955355</v>
+        <v>14.04898263747981</v>
       </c>
       <c r="D19">
-        <v>8.458504900837633</v>
+        <v>6.385867505973346</v>
       </c>
       <c r="E19">
-        <v>16.16885749196489</v>
+        <v>11.45614177334841</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.077316746614895</v>
+        <v>3.7272340144608</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.0756919048453</v>
+        <v>52.83664773673994</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.98272573090616</v>
+        <v>13.70185885261964</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.00779061384428</v>
+        <v>16.3101925918697</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.93175928887936</v>
+        <v>10.7545229554584</v>
       </c>
       <c r="C20">
-        <v>20.59847831782649</v>
+        <v>14.19589898235456</v>
       </c>
       <c r="D20">
-        <v>8.64579663764593</v>
+        <v>6.431506271691884</v>
       </c>
       <c r="E20">
-        <v>16.53263825222285</v>
+        <v>11.56055652650235</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.07138141748246</v>
+        <v>3.725712524621033</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.52366067906111</v>
+        <v>53.39817289621257</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.33540345978096</v>
+        <v>13.73239442731342</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.41341376589979</v>
+        <v>16.36125894231222</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.02237831275136</v>
+        <v>10.77182690215041</v>
       </c>
       <c r="C21">
-        <v>21.97590710564215</v>
+        <v>14.6816616613509</v>
       </c>
       <c r="D21">
-        <v>9.26390330651277</v>
+        <v>6.584770339128246</v>
       </c>
       <c r="E21">
-        <v>17.73506935629628</v>
+        <v>11.90811904540581</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.051203851076181</v>
+        <v>3.720744266571607</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.32551754657021</v>
+        <v>55.24234811817035</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.50651057625023</v>
+        <v>13.84135276748906</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.75700509288654</v>
+        <v>16.53803953598315</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.73551376253053</v>
+        <v>10.79010517262953</v>
       </c>
       <c r="C22">
-        <v>22.86394974713416</v>
+        <v>14.99280394435503</v>
       </c>
       <c r="D22">
-        <v>9.660800819708998</v>
+        <v>6.684701939955419</v>
       </c>
       <c r="E22">
-        <v>18.50879731847444</v>
+        <v>12.13246281749857</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.037760949907727</v>
+        <v>3.71760358363657</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.4250085076403</v>
+        <v>56.41479124260928</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.26460555606432</v>
+        <v>13.91721976165328</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.62399244603414</v>
+        <v>16.65730382455158</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.35462346673077</v>
+        <v>10.77971002393755</v>
       </c>
       <c r="C23">
-        <v>22.39092745611205</v>
+        <v>14.82734987035435</v>
       </c>
       <c r="D23">
-        <v>9.449527598216354</v>
+        <v>6.631399320728421</v>
       </c>
       <c r="E23">
-        <v>18.0967666077682</v>
+        <v>12.01300684039754</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.044964769885316</v>
+        <v>3.719270142713478</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>83.77370247649999</v>
+        <v>55.79211157443717</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.86044845159335</v>
+        <v>13.87630787699183</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.16205489754787</v>
+        <v>16.59331903849942</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.91388955074468</v>
+        <v>10.75435725196941</v>
       </c>
       <c r="C24">
-        <v>20.57572455282192</v>
+        <v>14.18785931630884</v>
       </c>
       <c r="D24">
-        <v>8.635556376556107</v>
+        <v>6.428999829142161</v>
       </c>
       <c r="E24">
-        <v>16.51274180571819</v>
+        <v>11.55483381027399</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.071708060556396</v>
+        <v>3.725795534863882</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.44440097235253</v>
+        <v>53.36749321719781</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31609511010147</v>
+        <v>13.7306934152</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.39121868864388</v>
+        <v>16.35843466649798</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.3405703099914</v>
+        <v>10.75664618455339</v>
       </c>
       <c r="C25">
-        <v>18.55142028326927</v>
+        <v>13.47408998944043</v>
       </c>
       <c r="D25">
-        <v>7.719582681987252</v>
+        <v>6.210844466603636</v>
       </c>
       <c r="E25">
-        <v>14.7359982016637</v>
+        <v>11.05110293621663</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.099941499874568</v>
+        <v>3.733295880171582</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.40177858411471</v>
+        <v>50.61917225056929</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.60061921927333</v>
+        <v>13.59414812719113</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.41379716006999</v>
+        <v>16.12203891780445</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.78335592748847</v>
+        <v>10.1472454647488</v>
       </c>
       <c r="C2">
-        <v>12.93183655125447</v>
+        <v>16.99271839633468</v>
       </c>
       <c r="D2">
-        <v>6.051680083307279</v>
+        <v>7.005592005189504</v>
       </c>
       <c r="E2">
-        <v>10.67501344388617</v>
+        <v>13.36951000378962</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.73922194486029</v>
+        <v>2.120629460570069</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>48.49108567295852</v>
+        <v>64.99160085937974</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.51171245490564</v>
+        <v>12.27845812525669</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.96349986313935</v>
+        <v>14.88247567190637</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.8167576846205</v>
+        <v>9.309653581659653</v>
       </c>
       <c r="C3">
-        <v>12.55621843885591</v>
+        <v>15.89052402511586</v>
       </c>
       <c r="D3">
-        <v>5.945423132733894</v>
+        <v>6.49426490453249</v>
       </c>
       <c r="E3">
-        <v>10.41856911483452</v>
+        <v>12.49392304670979</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.743493126148991</v>
+        <v>2.134754021362843</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>46.989660917696</v>
+        <v>61.17287336337524</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.46730107455785</v>
+        <v>11.33912364347686</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.86615053209072</v>
+        <v>13.7907529923824</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.84469009016524</v>
+        <v>8.779228048667544</v>
       </c>
       <c r="C4">
-        <v>12.32244088705934</v>
+        <v>15.19068683278559</v>
       </c>
       <c r="D4">
-        <v>5.881213814876086</v>
+        <v>6.203674769288975</v>
       </c>
       <c r="E4">
-        <v>10.2609430477339</v>
+        <v>11.94036258220357</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.746242511741947</v>
+        <v>2.143523389624697</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>46.04091053947268</v>
+        <v>58.75112280963847</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.44571848631072</v>
+        <v>10.73923933027796</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.81147690813352</v>
+        <v>13.1789785738762</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.8579193653871</v>
+        <v>8.558774267903969</v>
       </c>
       <c r="C5">
-        <v>12.2265235717621</v>
+        <v>14.89969224925027</v>
       </c>
       <c r="D5">
-        <v>5.855343966622254</v>
+        <v>6.089376620221672</v>
       </c>
       <c r="E5">
-        <v>10.19676196682831</v>
+        <v>11.71077594260465</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.747394959338087</v>
+        <v>2.147127258278791</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.64792008798212</v>
+        <v>57.74479599466203</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.43835681566254</v>
+        <v>10.48873338532644</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.79049563901429</v>
+        <v>12.9808107409872</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.86022698168385</v>
+        <v>8.52190186168597</v>
       </c>
       <c r="C6">
-        <v>12.21056151008728</v>
+        <v>14.85102343761861</v>
       </c>
       <c r="D6">
-        <v>5.851067225930084</v>
+        <v>6.070292872148622</v>
       </c>
       <c r="E6">
-        <v>10.18611076883242</v>
+        <v>11.67241252317776</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.747588262549566</v>
+        <v>2.147727668024092</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.58229181289096</v>
+        <v>57.57652351271712</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.43722105032703</v>
+        <v>10.44676544525802</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.78709058513542</v>
+        <v>12.94787985046358</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.84486105591989</v>
+        <v>8.776272642967985</v>
       </c>
       <c r="C7">
-        <v>12.32114975742639</v>
+        <v>15.18678583692145</v>
       </c>
       <c r="D7">
-        <v>5.880863679044725</v>
+        <v>6.202140355622231</v>
       </c>
       <c r="E7">
-        <v>10.26007713770285</v>
+        <v>11.9372824705147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.746257924081014</v>
+        <v>2.143571862681893</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>46.03563577326065</v>
+        <v>58.73762981478785</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.44561339733683</v>
+        <v>10.73588569768555</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.81118866914289</v>
+        <v>13.17630780548153</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.79332056587702</v>
+        <v>9.861637053870236</v>
       </c>
       <c r="C8">
-        <v>12.80305793274817</v>
+        <v>16.61745298536364</v>
       </c>
       <c r="D8">
-        <v>6.014850138237695</v>
+        <v>6.832192452078035</v>
       </c>
       <c r="E8">
-        <v>10.58668252686636</v>
+        <v>13.070901298875</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.740668408346136</v>
+        <v>2.125483296482533</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>47.97919455133899</v>
+        <v>63.69078708552621</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.49522207198079</v>
+        <v>11.95922808183817</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.92888603690686</v>
+        <v>14.51180874234124</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.75195207246949</v>
+        <v>11.87489112256856</v>
       </c>
       <c r="C9">
-        <v>13.71740156103533</v>
+        <v>19.24331246013519</v>
       </c>
       <c r="D9">
-        <v>6.284194198853861</v>
+        <v>8.033864583529818</v>
       </c>
       <c r="E9">
-        <v>11.22180366436555</v>
+        <v>15.34498146415037</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.730707117862968</v>
+        <v>2.090471696735478</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>51.56190408123409</v>
+        <v>72.80688874446626</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.63735830178261</v>
+        <v>14.18668824972081</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.19931796280952</v>
+        <v>17.09056568007134</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.75888926384511</v>
+        <v>13.30543868658426</v>
       </c>
       <c r="C10">
-        <v>14.3634848447686</v>
+        <v>21.0729567638354</v>
       </c>
       <c r="D10">
-        <v>6.483982555446616</v>
+        <v>8.859099917478249</v>
       </c>
       <c r="E10">
-        <v>11.68007225313752</v>
+        <v>16.94725518862838</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.72398836288867</v>
+        <v>2.06452122098736</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>54.03646623571272</v>
+        <v>79.176914848629</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.76862620093102</v>
+        <v>15.73827592247761</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.42089910652275</v>
+        <v>18.87620202385709</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.77030012132739</v>
+        <v>13.95176422110701</v>
       </c>
       <c r="C11">
-        <v>14.65054445425827</v>
+        <v>21.88741604698023</v>
       </c>
       <c r="D11">
-        <v>6.574849110049522</v>
+        <v>9.224290963580927</v>
       </c>
       <c r="E11">
-        <v>11.88575348893259</v>
+        <v>17.65791970328349</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.721059987565501</v>
+        <v>2.052524435310425</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>55.12473842184038</v>
+        <v>82.01681372859085</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.83401916058338</v>
+        <v>16.43111722143527</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.52636392630517</v>
+        <v>19.67066286382101</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.77581648927783</v>
+        <v>14.1965067066676</v>
       </c>
       <c r="C12">
-        <v>14.75816787251038</v>
+        <v>22.19369436049757</v>
       </c>
       <c r="D12">
-        <v>6.609220541875986</v>
+        <v>9.361343485009241</v>
       </c>
       <c r="E12">
-        <v>11.96316402854382</v>
+        <v>17.92490019057744</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.719969334929413</v>
+        <v>2.047939219855722</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>55.53122631593153</v>
+        <v>83.08539514000256</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.85958243186244</v>
+        <v>16.69217108550036</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.56694320602776</v>
+        <v>19.96953603275269</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.77457517614877</v>
+        <v>14.14378588974628</v>
       </c>
       <c r="C13">
-        <v>14.73503868657303</v>
+        <v>22.12781897142676</v>
       </c>
       <c r="D13">
-        <v>6.601820262434248</v>
+        <v>9.331877646839962</v>
       </c>
       <c r="E13">
-        <v>11.94651462048322</v>
+        <v>17.86748722164908</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.720203416775104</v>
+        <v>2.048928876096802</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>55.44393517582661</v>
+        <v>82.85553264248831</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.85404160447792</v>
+        <v>16.63599665724907</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.55817565306738</v>
+        <v>19.90524533841445</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.77072996266399</v>
+        <v>13.97189539410789</v>
       </c>
       <c r="C14">
-        <v>14.6594208512613</v>
+        <v>21.91265377541562</v>
       </c>
       <c r="D14">
-        <v>6.577677821305358</v>
+        <v>9.235589674534943</v>
       </c>
       <c r="E14">
-        <v>11.89213206342059</v>
+        <v>17.67992395834636</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.720969893827038</v>
+        <v>2.052148149578756</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>55.15829425940154</v>
+        <v>82.10485343531676</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.83610632489144</v>
+        <v>16.45261694827374</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.52968971148302</v>
+        <v>19.69528704451186</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.76853052293324</v>
+        <v>13.86662752163904</v>
       </c>
       <c r="C15">
-        <v>14.61295945169068</v>
+        <v>21.78059484801951</v>
       </c>
       <c r="D15">
-        <v>6.562883943299062</v>
+        <v>9.176456973246964</v>
       </c>
       <c r="E15">
-        <v>11.85875697535289</v>
+        <v>17.56477438195768</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.721441756638005</v>
+        <v>2.05411405182571</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>54.98259287848868</v>
+        <v>81.64420264573209</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.82522416865155</v>
+        <v>16.34013938292217</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.51232397875605</v>
+        <v>19.56644430612257</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.75831041874485</v>
+        <v>13.26316162313071</v>
       </c>
       <c r="C16">
-        <v>14.34457868976724</v>
+        <v>21.0194047111046</v>
       </c>
       <c r="D16">
-        <v>6.478040809551831</v>
+        <v>8.835047117712497</v>
       </c>
       <c r="E16">
-        <v>11.66656781621086</v>
+        <v>16.9004845299525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.724182302414153</v>
+        <v>2.065300187976955</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>53.96457129441903</v>
+        <v>78.9902755940298</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.76446554291446</v>
+        <v>15.69278103129167</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.41409818743999</v>
+        <v>18.82397136784962</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.75416177804821</v>
+        <v>12.89222926566944</v>
       </c>
       <c r="C17">
-        <v>14.17811135755387</v>
+        <v>20.54813655566095</v>
       </c>
       <c r="D17">
-        <v>6.425962186049299</v>
+        <v>8.623139053912375</v>
       </c>
       <c r="E17">
-        <v>11.54789647157906</v>
+        <v>16.48861643809491</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.725896221155599</v>
+        <v>2.072103816592954</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>53.33028723638628</v>
+        <v>77.34830467386176</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.72863558695877</v>
+        <v>15.29268582657126</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.35501486419166</v>
+        <v>18.36430770550203</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.75255227556576</v>
+        <v>12.67841676714896</v>
       </c>
       <c r="C18">
-        <v>14.0817243718552</v>
+        <v>20.2753633229655</v>
       </c>
       <c r="D18">
-        <v>6.396008247630592</v>
+        <v>8.500277825416433</v>
       </c>
       <c r="E18">
-        <v>11.47938165991867</v>
+        <v>16.24997208177336</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.726894080701893</v>
+        <v>2.076000064791432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>52.96195413322424</v>
+        <v>76.39833051968034</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.70856272832593</v>
+        <v>15.06130063150098</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.32147275964805</v>
+        <v>18.09820133092463</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.75214042603153</v>
+        <v>12.60592692729507</v>
       </c>
       <c r="C19">
-        <v>14.04898263747981</v>
+        <v>20.18270163955344</v>
       </c>
       <c r="D19">
-        <v>6.385867505973346</v>
+        <v>8.458504900837593</v>
       </c>
       <c r="E19">
-        <v>11.45614177334841</v>
+        <v>16.16885749196486</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.7272340144608</v>
+        <v>2.077316746614621</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>52.83664773673994</v>
+        <v>76.07569190484485</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.70185885261964</v>
+        <v>14.98272573090621</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.3101925918697</v>
+        <v>18.00779061384429</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.7545229554584</v>
+        <v>12.93175928887947</v>
       </c>
       <c r="C20">
-        <v>14.19589898235456</v>
+        <v>20.59847831782666</v>
       </c>
       <c r="D20">
-        <v>6.431506271691884</v>
+        <v>8.645796637645944</v>
       </c>
       <c r="E20">
-        <v>11.56055652650235</v>
+        <v>16.53263825222284</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.725712524621033</v>
+        <v>2.071381417482747</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>53.39817289621257</v>
+        <v>77.52366067906183</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.73239442731342</v>
+        <v>15.33540345978112</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.36125894231222</v>
+        <v>18.41341376589992</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.77182690215041</v>
+        <v>14.02237831275145</v>
       </c>
       <c r="C21">
-        <v>14.6816616613509</v>
+        <v>21.97590710564218</v>
       </c>
       <c r="D21">
-        <v>6.584770339128246</v>
+        <v>9.263903306512665</v>
       </c>
       <c r="E21">
-        <v>11.90811904540581</v>
+        <v>17.73506935629627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.720744266571607</v>
+        <v>2.051203851076292</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>55.24234811817035</v>
+        <v>82.32551754657089</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.84135276748906</v>
+        <v>16.50651057625035</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.53803953598315</v>
+        <v>19.75700509288662</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.79010517262953</v>
+        <v>14.7355137625305</v>
       </c>
       <c r="C22">
-        <v>14.99280394435503</v>
+        <v>22.86394974713423</v>
       </c>
       <c r="D22">
-        <v>6.684701939955419</v>
+        <v>9.660800819709035</v>
       </c>
       <c r="E22">
-        <v>12.13246281749857</v>
+        <v>18.50879731847438</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.71760358363657</v>
+        <v>2.037760949907591</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>56.41479124260928</v>
+        <v>85.42500850764105</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.91721976165328</v>
+        <v>17.26460555606428</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.65730382455158</v>
+        <v>20.62399244603404</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.77971002393755</v>
+        <v>14.35462346673078</v>
       </c>
       <c r="C23">
-        <v>14.82734987035435</v>
+        <v>22.39092745611222</v>
       </c>
       <c r="D23">
-        <v>6.631399320728421</v>
+        <v>9.449527598216427</v>
       </c>
       <c r="E23">
-        <v>12.01300684039754</v>
+        <v>18.0967666077682</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.719270142713478</v>
+        <v>2.044964769885096</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>55.79211157443717</v>
+        <v>83.77370247650109</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.87630787699183</v>
+        <v>16.86044845159343</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.59331903849942</v>
+        <v>20.16205489754796</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.75435725196941</v>
+        <v>12.91388955074476</v>
       </c>
       <c r="C24">
-        <v>14.18785931630884</v>
+        <v>20.57572455282195</v>
       </c>
       <c r="D24">
-        <v>6.428999829142161</v>
+        <v>8.635556376556133</v>
       </c>
       <c r="E24">
-        <v>11.55483381027399</v>
+        <v>16.51274180571829</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.725795534863882</v>
+        <v>2.071708060556109</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>53.36749321719781</v>
+        <v>77.44440097235305</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.7306934152</v>
+        <v>15.31609511010143</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.35843466649798</v>
+        <v>18.39121868864391</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.75664618455339</v>
+        <v>11.34057030999154</v>
       </c>
       <c r="C25">
-        <v>13.47408998944043</v>
+        <v>18.55142028326936</v>
       </c>
       <c r="D25">
-        <v>6.210844466603636</v>
+        <v>7.719582681987259</v>
       </c>
       <c r="E25">
-        <v>11.05110293621663</v>
+        <v>14.73599820166377</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.733295880171582</v>
+        <v>2.099941499874166</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>50.61917225056929</v>
+        <v>70.40177858411528</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.59414812719113</v>
+        <v>13.60061921927338</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.12203891780445</v>
+        <v>16.41379716007009</v>
       </c>
       <c r="N25">
         <v>0</v>
